--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3495283.433273723</v>
+        <v>3493031.353562514</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>133.4718779172108</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>10.93787135974334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>70.33495409138541</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.9870153438497</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840664</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>352.6297909337005</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316092</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620241</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>13.02719212039518</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505467</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242269</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.418012197378</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.455495256966</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1044.189796650216</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>658.4015440519715</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.0178522615</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>560.4166776763452</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>391.4804947484383</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>223.7776581231573</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101507</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1766.418682672904</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1544.65206724243</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1544.65206724243</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1289.967579036543</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W4" t="n">
-        <v>1000.550408999582</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="X4" t="n">
-        <v>772.5608581015648</v>
+        <v>742.0651425065849</v>
       </c>
       <c r="Y4" t="n">
-        <v>772.5608581015648</v>
+        <v>742.0651425065849</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267228</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2866.097597267228</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2866.097597267228</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968308</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>879.7731733615572</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>879.7731733615572</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008241</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032429</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1914.135768168901</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>370.0144869816394</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5081,10 +5081,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7491,19 +7491,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711692</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440089</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="16">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244628</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
@@ -26347,13 +26347,13 @@
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818182</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="E4" t="n">
         <v>12996.8641468304</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="G4" t="n">
-        <v>12996.86414683041</v>
-      </c>
       <c r="H4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="M4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12996.86414683048</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.9480827048</v>
+        <v>-769398.9480827055</v>
       </c>
       <c r="C6" t="n">
-        <v>559345.7976448877</v>
+        <v>559345.7976448875</v>
       </c>
       <c r="D6" t="n">
-        <v>559345.7976448877</v>
+        <v>559345.7976448874</v>
       </c>
       <c r="E6" t="n">
-        <v>307078.7489351619</v>
+        <v>307044.0110097271</v>
       </c>
       <c r="F6" t="n">
-        <v>632491.2107425181</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="G6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170825</v>
       </c>
       <c r="H6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="I6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="J6" t="n">
-        <v>414960.0083452407</v>
+        <v>414925.2704198046</v>
       </c>
       <c r="K6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="L6" t="n">
-        <v>632491.2107425177</v>
+        <v>632456.472817082</v>
       </c>
       <c r="M6" t="n">
-        <v>547436.1828070057</v>
+        <v>547401.4448815703</v>
       </c>
       <c r="N6" t="n">
-        <v>632491.2107425182</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="O6" t="n">
-        <v>632491.210742518</v>
+        <v>632456.472817082</v>
       </c>
       <c r="P6" t="n">
-        <v>632491.2107425178</v>
+        <v>632456.4728170821</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>273.4041678245006</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.41454905009475</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>119.4340712400565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.2509233122039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972062</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034321</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54.24625480801092</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468598</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090719</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>239.1104512034328</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-5.223806090313349e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-3.400406421511052e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.424525727746915e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.255575077084</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817553</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367747</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
